--- a/Data/p.value.diff.pre.xlsx
+++ b/Data/p.value.diff.pre.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Breili/Documents/HINN/Masteroppgave/1. NY MASTERPROSJEKT/RESULTATER/Masteroppgave/Baselinekarakteristika/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Breili/Documents/HINN/Masteroppgave/1. NY MASTERPROSJEKT/RESULTATER/Masteroppgave/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83A4BD5-5448-364D-803D-B3794D706C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6D5920-2E66-8B4E-B6C1-5529025C59FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36740" yWindow="1120" windowWidth="18220" windowHeight="17500" xr2:uid="{E12EB877-5062-3346-AFB2-37E3D8D14704}"/>
   </bookViews>
@@ -747,13 +747,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>9.5269999999999994E-2</v>
+        <v>0.1404</v>
       </c>
       <c r="C21">
-        <v>0.21379999999999999</v>
+        <v>0.30559999999999998</v>
       </c>
       <c r="D21">
-        <v>0.26600000000000001</v>
+        <v>0.32550000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Data/p.value.diff.pre.xlsx
+++ b/Data/p.value.diff.pre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Breili/Documents/HINN/Masteroppgave/1. NY MASTERPROSJEKT/RESULTATER/Masteroppgave/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6D5920-2E66-8B4E-B6C1-5529025C59FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACD9929-EA87-184A-86F7-F78596F6053E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36740" yWindow="1120" windowWidth="18220" windowHeight="17500" xr2:uid="{E12EB877-5062-3346-AFB2-37E3D8D14704}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>p.value</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>act</t>
   </si>
 </sst>
 </file>
@@ -459,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C13CF4F-9EA2-C244-A1D5-A53E148B75DC}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -742,20 +739,6 @@
         <v>0.44429999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>0.1404</v>
-      </c>
-      <c r="C21">
-        <v>0.30559999999999998</v>
-      </c>
-      <c r="D21">
-        <v>0.32550000000000001</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/p.value.diff.pre.xlsx
+++ b/Data/p.value.diff.pre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Breili/Documents/HINN/Masteroppgave/1. NY MASTERPROSJEKT/RESULTATER/Masteroppgave/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACD9929-EA87-184A-86F7-F78596F6053E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0557E3-C2AD-4544-B09A-6131CC3964B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36740" yWindow="1120" windowWidth="18220" windowHeight="17500" xr2:uid="{E12EB877-5062-3346-AFB2-37E3D8D14704}"/>
   </bookViews>
@@ -464,7 +464,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
